--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_PM_COA_SEC_ListView.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_PM_COA_SEC_ListView.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AADTHAKUR\Documents\RStars_Automation\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D716255E-4719-4D55-927C-FAB306C97A81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F672688A-355D-4DC8-9DBB-8BACD25915C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{79B22D0D-2409-4EC2-B3CC-F342799DAB2D}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
   <si>
     <t>Keyword</t>
   </si>
@@ -100,9 +100,6 @@
     <t>WaitForPageLoad</t>
   </si>
   <si>
-    <t>J05</t>
-  </si>
-  <si>
     <t>Select Agency Code 1</t>
   </si>
   <si>
@@ -115,9 +112,6 @@
     <t xml:space="preserve"> Agency Code 2 Profile </t>
   </si>
   <si>
-    <t xml:space="preserve"> Agency Code 1 Profile </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Agency Code 3 Profile </t>
   </si>
   <si>
@@ -128,6 +122,9 @@
   </si>
   <si>
     <t>J02</t>
+  </si>
+  <si>
+    <t>AGENCY CODE 1 PROFILE</t>
   </si>
 </sst>
 </file>
@@ -537,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E6FE793-7437-4DAF-98C3-A71A3C2B5448}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -589,13 +586,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -606,10 +603,10 @@
         <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -617,13 +614,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -631,7 +628,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>13</v>
@@ -644,6 +641,15 @@
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="3"/>
@@ -652,6 +658,11 @@
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -664,15 +675,15 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1796875" customWidth="1"/>
+    <col min="4" max="4" width="23.7265625" customWidth="1"/>
     <col min="5" max="5" width="19.81640625" customWidth="1"/>
     <col min="6" max="6" width="15.6328125" bestFit="1" customWidth="1"/>
   </cols>
@@ -691,7 +702,7 @@
         <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>20</v>
@@ -702,16 +713,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F2" s="4"/>
     </row>
@@ -720,16 +731,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F3" s="4"/>
     </row>
@@ -738,16 +749,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>29</v>
       </c>
       <c r="F4" s="4"/>
     </row>
